--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -14,9 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>TTQ3.1_1</t>
+  </si>
+  <si>
+    <t>TTQ3.1_2</t>
+  </si>
   <si>
     <t>TTQ3.1_3</t>
+  </si>
+  <si>
+    <t>Citrus, lemon, lime flavor</t>
+  </si>
+  <si>
+    <t>Flavor, taste</t>
+  </si>
+  <si>
+    <t>Tangy</t>
+  </si>
+  <si>
+    <t>Aftertaste</t>
+  </si>
+  <si>
+    <t>Fruity flavor</t>
+  </si>
+  <si>
+    <t>Refreshing</t>
+  </si>
+  <si>
+    <t>Level of flavor, strong, not too strong, not too weak</t>
+  </si>
+  <si>
+    <t>Sweetness</t>
+  </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>All other</t>
   </si>
 </sst>
 </file>
@@ -374,15 +425,725 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="D45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4">
+      <c r="D289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4">
+      <c r="D294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4">
+      <c r="D320">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4">
+      <c r="D322">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/combined_data.xlsx
+++ b/combined_data.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +49,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,330 +365,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:1">
+      <c r="A4">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:1">
+      <c r="A7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
         <v>8</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
         <v>99</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1">
+      <c r="A28">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
         <v>7</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
         <v>99</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
         <v>7</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
         <v>8</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1">
+      <c r="A40">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
         <v>8</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1">
+      <c r="A44">
         <v>7</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
         <v>5</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:1">
+      <c r="A49">
         <v>99</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
         <v>7</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
         <v>99</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:1">
+      <c r="A54">
         <v>9</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:1">
+      <c r="A55">
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
         <v>8</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:1">
+      <c r="A62">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>